--- a/Planning_Reel_Portail_Captif_UCAC_ICAM.xlsx
+++ b/Planning_Reel_Portail_Captif_UCAC_ICAM.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planning Réel (Gantt)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Écart Prévisionnel vs Réel" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gantt Réel" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analyse des Écarts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30,18 +30,18 @@
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="001A365D"/>
-      <sz val="16"/>
+      <sz val="14"/>
     </font>
     <font>
       <name val="Calibri"/>
       <color rgb="0064748B"/>
-      <sz val="11"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="001A365D"/>
-      <sz val="10"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -56,18 +56,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <i val="1"/>
-      <color rgb="0064748B"/>
-      <sz val="10"/>
+      <sz val="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -77,13 +66,12 @@
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00EF4444"/>
-      <sz val="10"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <i val="1"/>
-      <color rgb="00EF4444"/>
-      <sz val="10"/>
+      <b val="1"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -94,11 +82,23 @@
     <font>
       <name val="Calibri"/>
       <b val="1"/>
+      <color rgb="00EF4444"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
       <color rgb="00F59E0B"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="0064748B"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -137,14 +137,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F1F5F9"/>
-        <bgColor rgb="00F1F5F9"/>
+        <fgColor rgb="001E40AF"/>
+        <bgColor rgb="001E40AF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001E40AF"/>
-        <bgColor rgb="001E40AF"/>
+        <fgColor rgb="00F1F5F9"/>
+        <bgColor rgb="00F1F5F9"/>
       </patternFill>
     </fill>
     <fill>
@@ -187,6 +187,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0064748B"/>
         <bgColor rgb="0064748B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A365D"/>
+        <bgColor rgb="001A365D"/>
       </patternFill>
     </fill>
   </fills>
@@ -274,198 +280,198 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,10 +839,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
@@ -844,256 +850,322 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="3.5" customWidth="1" min="7" max="7"/>
-    <col width="3.5" customWidth="1" min="8" max="8"/>
-    <col width="3.5" customWidth="1" min="9" max="9"/>
-    <col width="3.5" customWidth="1" min="10" max="10"/>
-    <col width="3.5" customWidth="1" min="11" max="11"/>
-    <col width="3.5" customWidth="1" min="12" max="12"/>
-    <col width="3.5" customWidth="1" min="13" max="13"/>
-    <col width="3.5" customWidth="1" min="14" max="14"/>
-    <col width="3.5" customWidth="1" min="15" max="15"/>
-    <col width="3.5" customWidth="1" min="16" max="16"/>
-    <col width="3.5" customWidth="1" min="17" max="17"/>
-    <col width="3.5" customWidth="1" min="18" max="18"/>
-    <col width="3.5" customWidth="1" min="19" max="19"/>
-    <col width="3.5" customWidth="1" min="20" max="20"/>
-    <col width="3.5" customWidth="1" min="21" max="21"/>
-    <col width="3.5" customWidth="1" min="22" max="22"/>
-    <col width="3.5" customWidth="1" min="23" max="23"/>
-    <col width="3.5" customWidth="1" min="24" max="24"/>
-    <col width="3.5" customWidth="1" min="25" max="25"/>
-    <col width="3.5" customWidth="1" min="26" max="26"/>
-    <col width="3.5" customWidth="1" min="27" max="27"/>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="4.2" customWidth="1" min="7" max="7"/>
+    <col width="4.2" customWidth="1" min="8" max="8"/>
+    <col width="4.2" customWidth="1" min="9" max="9"/>
+    <col width="4.2" customWidth="1" min="10" max="10"/>
+    <col width="4.2" customWidth="1" min="11" max="11"/>
+    <col width="4.2" customWidth="1" min="12" max="12"/>
+    <col width="4.2" customWidth="1" min="13" max="13"/>
+    <col width="4.2" customWidth="1" min="14" max="14"/>
+    <col width="4.2" customWidth="1" min="15" max="15"/>
+    <col width="4.2" customWidth="1" min="16" max="16"/>
+    <col width="4.2" customWidth="1" min="17" max="17"/>
+    <col width="4.2" customWidth="1" min="18" max="18"/>
+    <col width="4.2" customWidth="1" min="19" max="19"/>
+    <col width="4.2" customWidth="1" min="20" max="20"/>
+    <col width="4.2" customWidth="1" min="21" max="21"/>
+    <col width="4.2" customWidth="1" min="22" max="22"/>
+    <col width="4.2" customWidth="1" min="23" max="23"/>
+    <col width="4.2" customWidth="1" min="24" max="24"/>
+    <col width="4.2" customWidth="1" min="25" max="25"/>
+    <col width="4.2" customWidth="1" min="26" max="26"/>
+    <col width="4.2" customWidth="1" min="27" max="27"/>
+    <col width="4.2" customWidth="1" min="28" max="28"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>PLANNING RÉEL — PORTAIL CAPTIF WIFI UCAC-ICAM</t>
+          <t>DIAGRAMME DE GANTT — PLANNING RÉEL — PORTAIL CAPTIF WIFI UCAC-ICAM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Période : 1er Septembre 2025 → 20 Janvier 2026  |  Durée réelle : ~4,5 mois (dont ~5 semaines de pause)</t>
+          <t>Septembre 2025 → Janvier 2026  |  Durée totale : 141 jours  |  Travail effectif : ~106 jours  |  Pauses : ~35 jours</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Septembre 2025</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>SEPT.</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>Octobre 2025</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="7" t="n"/>
+      <c r="M3" s="5" t="n"/>
       <c r="N3" s="5" t="n"/>
-      <c r="O3" s="7" t="inlineStr">
-        <is>
-          <t>Novembre 2025</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="4" t="n"/>
-      <c r="S3" s="5" t="n"/>
-      <c r="T3" s="8" t="inlineStr">
-        <is>
-          <t>Décembre 2025</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="n"/>
-      <c r="V3" s="4" t="n"/>
+      <c r="O3" s="6" t="n"/>
+      <c r="P3" s="8" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="6" t="n"/>
+      <c r="T3" s="9" t="inlineStr">
+        <is>
+          <t>DÉC.</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="n"/>
+      <c r="V3" s="5" t="n"/>
       <c r="W3" s="5" t="n"/>
-      <c r="X3" s="9" t="inlineStr">
-        <is>
-          <t>Janvier 2026</t>
-        </is>
-      </c>
-      <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="4" t="n"/>
-      <c r="AA3" s="5" t="n"/>
-    </row>
-    <row r="4">
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>1/9</t>
-        </is>
-      </c>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>8/9</t>
-        </is>
-      </c>
-      <c r="I4" s="10" t="inlineStr">
-        <is>
-          <t>15/9</t>
-        </is>
-      </c>
-      <c r="J4" s="10" t="inlineStr">
-        <is>
-          <t>22/9</t>
-        </is>
-      </c>
-      <c r="K4" s="10" t="inlineStr">
-        <is>
-          <t>29/9</t>
-        </is>
-      </c>
-      <c r="L4" s="10" t="inlineStr">
-        <is>
-          <t>6/10</t>
-        </is>
-      </c>
-      <c r="M4" s="10" t="inlineStr">
-        <is>
-          <t>13/10</t>
-        </is>
-      </c>
-      <c r="N4" s="10" t="inlineStr">
+      <c r="X3" s="6" t="n"/>
+      <c r="Y3" s="10" t="n"/>
+      <c r="Z3" s="5" t="n"/>
+      <c r="AA3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>N°</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Tâche</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr">
+        <is>
+          <t>Début</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>S1
+1/9</t>
+        </is>
+      </c>
+      <c r="H4" s="12" t="inlineStr">
+        <is>
+          <t>S2
+8/9</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>S3
+15/9</t>
+        </is>
+      </c>
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>S4
+22/9</t>
+        </is>
+      </c>
+      <c r="K4" s="12" t="inlineStr">
+        <is>
+          <t>S5
+29/9</t>
+        </is>
+      </c>
+      <c r="L4" s="12" t="inlineStr">
+        <is>
+          <t>S6
+6/10</t>
+        </is>
+      </c>
+      <c r="M4" s="12" t="inlineStr">
+        <is>
+          <t>S7
+13/10</t>
+        </is>
+      </c>
+      <c r="N4" s="12" t="inlineStr">
+        <is>
+          <t>S8
+20/10</t>
+        </is>
+      </c>
+      <c r="O4" s="12" t="inlineStr">
+        <is>
+          <t>S9
+27/10</t>
+        </is>
+      </c>
+      <c r="P4" s="12" t="inlineStr">
+        <is>
+          <t>S10
+3/11</t>
+        </is>
+      </c>
+      <c r="Q4" s="12" t="inlineStr">
+        <is>
+          <t>S11
+10/11</t>
+        </is>
+      </c>
+      <c r="R4" s="12" t="inlineStr">
+        <is>
+          <t>S12
+17/11</t>
+        </is>
+      </c>
+      <c r="S4" s="12" t="inlineStr">
+        <is>
+          <t>S13
+24/11</t>
+        </is>
+      </c>
+      <c r="T4" s="12" t="inlineStr">
+        <is>
+          <t>S14
+1/12</t>
+        </is>
+      </c>
+      <c r="U4" s="12" t="inlineStr">
+        <is>
+          <t>S15
+8/12</t>
+        </is>
+      </c>
+      <c r="V4" s="12" t="inlineStr">
+        <is>
+          <t>S16
+15/12</t>
+        </is>
+      </c>
+      <c r="W4" s="12" t="inlineStr">
+        <is>
+          <t>S17
+22/12</t>
+        </is>
+      </c>
+      <c r="X4" s="12" t="inlineStr">
+        <is>
+          <t>S18
+29/12</t>
+        </is>
+      </c>
+      <c r="Y4" s="12" t="inlineStr">
+        <is>
+          <t>S19
+5/1</t>
+        </is>
+      </c>
+      <c r="Z4" s="12" t="inlineStr">
+        <is>
+          <t>S20
+12/1</t>
+        </is>
+      </c>
+      <c r="AA4" s="12" t="inlineStr">
+        <is>
+          <t>S21
+19/1</t>
+        </is>
+      </c>
+      <c r="AB4" s="12" t="inlineStr">
+        <is>
+          <t>S22
+26/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="C5" s="14" t="inlineStr">
+        <is>
+          <t>Analyse et Conception</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t>01/09</t>
+        </is>
+      </c>
+      <c r="E5" s="15" t="inlineStr">
         <is>
           <t>20/10</t>
         </is>
       </c>
-      <c r="O4" s="10" t="inlineStr">
-        <is>
-          <t>27/10</t>
-        </is>
-      </c>
-      <c r="P4" s="10" t="inlineStr">
-        <is>
-          <t>3/11</t>
-        </is>
-      </c>
-      <c r="Q4" s="10" t="inlineStr">
-        <is>
-          <t>10/11</t>
-        </is>
-      </c>
-      <c r="R4" s="10" t="inlineStr">
-        <is>
-          <t>17/11</t>
-        </is>
-      </c>
-      <c r="S4" s="10" t="inlineStr">
-        <is>
-          <t>24/11</t>
-        </is>
-      </c>
-      <c r="T4" s="10" t="inlineStr">
-        <is>
-          <t>1/12</t>
-        </is>
-      </c>
-      <c r="U4" s="10" t="inlineStr">
-        <is>
-          <t>8/12</t>
-        </is>
-      </c>
-      <c r="V4" s="10" t="inlineStr">
-        <is>
-          <t>15/12</t>
-        </is>
-      </c>
-      <c r="W4" s="10" t="inlineStr">
-        <is>
-          <t>22/12</t>
-        </is>
-      </c>
-      <c r="X4" s="10" t="inlineStr">
-        <is>
-          <t>29/12</t>
-        </is>
-      </c>
-      <c r="Y4" s="10" t="inlineStr">
-        <is>
-          <t>5/1</t>
-        </is>
-      </c>
-      <c r="Z4" s="10" t="inlineStr">
-        <is>
-          <t>12/1</t>
-        </is>
-      </c>
-      <c r="AA4" s="10" t="inlineStr">
-        <is>
-          <t>19/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Phase</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>Tâche</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>Début</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="E5" s="11" t="inlineStr">
-        <is>
-          <t>Jours</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
-        <is>
-          <t>Observations</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t>Phase 1: Analyse et Conception</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>Analyse des besoins UCAC-ICAM</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>01/09/25</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>10/09/25</t>
-        </is>
-      </c>
-      <c r="E6" s="14" t="n">
+      <c r="F5" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="16" t="n"/>
+      <c r="I5" s="16" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="16" t="n"/>
+      <c r="M5" s="16" t="n"/>
+      <c r="N5" s="16" t="n"/>
+      <c r="O5" s="17" t="n"/>
+      <c r="P5" s="17" t="n"/>
+      <c r="Q5" s="17" t="n"/>
+      <c r="R5" s="17" t="n"/>
+      <c r="S5" s="17" t="n"/>
+      <c r="T5" s="17" t="n"/>
+      <c r="U5" s="17" t="n"/>
+      <c r="V5" s="17" t="n"/>
+      <c r="W5" s="17" t="n"/>
+      <c r="X5" s="17" t="n"/>
+      <c r="Y5" s="17" t="n"/>
+      <c r="Z5" s="17" t="n"/>
+      <c r="AA5" s="17" t="n"/>
+      <c r="AB5" s="17" t="n"/>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="18" t="inlineStr"/>
+      <c r="B6" s="19" t="inlineStr"/>
+      <c r="C6" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Analyse des besoins</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>01/09</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>10/09</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="15" t="inlineStr"/>
       <c r="G6" s="16" t="n"/>
       <c r="H6" s="16" t="n"/>
       <c r="I6" s="17" t="n"/>
@@ -1115,28 +1187,29 @@
       <c r="Y6" s="17" t="n"/>
       <c r="Z6" s="17" t="n"/>
       <c r="AA6" s="17" t="n"/>
-    </row>
-    <row r="7" ht="22" customHeight="1">
+      <c r="AB6" s="17" t="n"/>
+    </row>
+    <row r="7" ht="20" customHeight="1">
       <c r="A7" s="18" t="inlineStr"/>
-      <c r="B7" s="18" t="inlineStr">
-        <is>
-          <t>Étude de l'existant (MikroTik, RADIUS)</t>
-        </is>
-      </c>
+      <c r="B7" s="19" t="inlineStr"/>
       <c r="C7" s="19" t="inlineStr">
         <is>
-          <t>11/09/25</t>
-        </is>
-      </c>
-      <c r="D7" s="19" t="inlineStr">
-        <is>
-          <t>17/09/25</t>
-        </is>
-      </c>
-      <c r="E7" s="19" t="n">
+          <t xml:space="preserve">  Étude de l'existant</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>11/09</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>17/09</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="20" t="inlineStr"/>
       <c r="G7" s="17" t="n"/>
       <c r="H7" s="16" t="n"/>
       <c r="I7" s="16" t="n"/>
@@ -1158,28 +1231,29 @@
       <c r="Y7" s="17" t="n"/>
       <c r="Z7" s="17" t="n"/>
       <c r="AA7" s="17" t="n"/>
-    </row>
-    <row r="8" ht="22" customHeight="1">
+      <c r="AB7" s="17" t="n"/>
+    </row>
+    <row r="8" ht="20" customHeight="1">
       <c r="A8" s="18" t="inlineStr"/>
-      <c r="B8" s="18" t="inlineStr">
-        <is>
-          <t>Conception UML (Use Cases, Classes)</t>
-        </is>
-      </c>
+      <c r="B8" s="19" t="inlineStr"/>
       <c r="C8" s="19" t="inlineStr">
         <is>
-          <t>18/09/25</t>
-        </is>
-      </c>
-      <c r="D8" s="19" t="inlineStr">
-        <is>
-          <t>25/09/25</t>
-        </is>
-      </c>
-      <c r="E8" s="19" t="n">
+          <t xml:space="preserve">  Conception UML</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>18/09</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>25/09</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="20" t="inlineStr"/>
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
       <c r="I8" s="16" t="n"/>
@@ -1201,35 +1275,32 @@
       <c r="Y8" s="17" t="n"/>
       <c r="Z8" s="17" t="n"/>
       <c r="AA8" s="17" t="n"/>
+      <c r="AB8" s="17" t="n"/>
     </row>
     <row r="9" ht="22" customHeight="1">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>⚠️ PAUSE</t>
-        </is>
-      </c>
-      <c r="B9" s="21" t="inlineStr">
-        <is>
-          <t>Travail sur autres projets académiques</t>
+      <c r="A9" s="21" t="inlineStr"/>
+      <c r="B9" s="22" t="inlineStr">
+        <is>
+          <t>⚠️ PAUSE 1</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>26/09/25</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="inlineStr">
-        <is>
-          <t>12/10/25</t>
-        </is>
-      </c>
-      <c r="E9" s="22" t="n">
+          <t>Autres projets académiques</t>
+        </is>
+      </c>
+      <c r="D9" s="23" t="inlineStr">
+        <is>
+          <t>26/09</t>
+        </is>
+      </c>
+      <c r="E9" s="23" t="inlineStr">
+        <is>
+          <t>12/10</t>
+        </is>
+      </c>
+      <c r="F9" s="23" t="n">
         <v>17</v>
-      </c>
-      <c r="F9" s="23" t="inlineStr">
-        <is>
-          <t>Projets non liés au portail captif</t>
-        </is>
       </c>
       <c r="G9" s="17" t="n"/>
       <c r="H9" s="17" t="n"/>
@@ -1252,31 +1323,28 @@
       <c r="Y9" s="17" t="n"/>
       <c r="Z9" s="17" t="n"/>
       <c r="AA9" s="17" t="n"/>
-    </row>
-    <row r="10" ht="22" customHeight="1">
+      <c r="AB9" s="17" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1">
       <c r="A10" s="18" t="inlineStr"/>
-      <c r="B10" s="18" t="inlineStr">
-        <is>
-          <t>Maquettes UI/UX</t>
-        </is>
-      </c>
+      <c r="B10" s="19" t="inlineStr"/>
       <c r="C10" s="19" t="inlineStr">
         <is>
-          <t>13/10/25</t>
-        </is>
-      </c>
-      <c r="D10" s="19" t="inlineStr">
-        <is>
-          <t>20/10/25</t>
-        </is>
-      </c>
-      <c r="E10" s="19" t="n">
+          <t xml:space="preserve">  Maquettes UI/UX</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>13/10</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>20/10</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
         <v>8</v>
-      </c>
-      <c r="F10" s="20" t="inlineStr">
-        <is>
-          <t>Reprise après pause</t>
-        </is>
       </c>
       <c r="G10" s="17" t="n"/>
       <c r="H10" s="17" t="n"/>
@@ -1299,32 +1367,35 @@
       <c r="Y10" s="17" t="n"/>
       <c r="Z10" s="17" t="n"/>
       <c r="AA10" s="17" t="n"/>
+      <c r="AB10" s="17" t="n"/>
     </row>
     <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="25" t="inlineStr">
-        <is>
-          <t>Phase 2: Développement Backend</t>
-        </is>
+      <c r="A11" s="25" t="n">
+        <v>2</v>
       </c>
       <c r="B11" s="26" t="inlineStr">
         <is>
-          <t>Setup Django + PostgreSQL + Docker</t>
-        </is>
-      </c>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>21/10/25</t>
+          <t>Phase 2</t>
+        </is>
+      </c>
+      <c r="C11" s="26" t="inlineStr">
+        <is>
+          <t>Développement Backend</t>
         </is>
       </c>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>27/10/25</t>
-        </is>
-      </c>
-      <c r="E11" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="F11" s="28" t="inlineStr"/>
+          <t>21/10</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>16/12</t>
+        </is>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>57</v>
+      </c>
       <c r="G11" s="17" t="n"/>
       <c r="H11" s="17" t="n"/>
       <c r="I11" s="17" t="n"/>
@@ -1332,42 +1403,43 @@
       <c r="K11" s="17" t="n"/>
       <c r="L11" s="17" t="n"/>
       <c r="M11" s="17" t="n"/>
-      <c r="N11" s="29" t="n"/>
-      <c r="O11" s="29" t="n"/>
-      <c r="P11" s="17" t="n"/>
-      <c r="Q11" s="17" t="n"/>
-      <c r="R11" s="17" t="n"/>
-      <c r="S11" s="17" t="n"/>
-      <c r="T11" s="17" t="n"/>
-      <c r="U11" s="17" t="n"/>
-      <c r="V11" s="17" t="n"/>
+      <c r="N11" s="28" t="n"/>
+      <c r="O11" s="28" t="n"/>
+      <c r="P11" s="28" t="n"/>
+      <c r="Q11" s="28" t="n"/>
+      <c r="R11" s="28" t="n"/>
+      <c r="S11" s="28" t="n"/>
+      <c r="T11" s="28" t="n"/>
+      <c r="U11" s="28" t="n"/>
+      <c r="V11" s="28" t="n"/>
       <c r="W11" s="17" t="n"/>
       <c r="X11" s="17" t="n"/>
       <c r="Y11" s="17" t="n"/>
       <c r="Z11" s="17" t="n"/>
       <c r="AA11" s="17" t="n"/>
-    </row>
-    <row r="12" ht="22" customHeight="1">
+      <c r="AB11" s="17" t="n"/>
+    </row>
+    <row r="12" ht="20" customHeight="1">
       <c r="A12" s="18" t="inlineStr"/>
-      <c r="B12" s="18" t="inlineStr">
-        <is>
-          <t>Modèles Django (User, Profile, Promotion)</t>
-        </is>
-      </c>
+      <c r="B12" s="19" t="inlineStr"/>
       <c r="C12" s="19" t="inlineStr">
         <is>
-          <t>28/10/25</t>
-        </is>
-      </c>
-      <c r="D12" s="19" t="inlineStr">
-        <is>
-          <t>07/11/25</t>
-        </is>
-      </c>
-      <c r="E12" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="F12" s="20" t="inlineStr"/>
+          <t xml:space="preserve">  Setup Django + PostgreSQL + Docker</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>21/10</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>27/10</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>7</v>
+      </c>
       <c r="G12" s="17" t="n"/>
       <c r="H12" s="17" t="n"/>
       <c r="I12" s="17" t="n"/>
@@ -1375,9 +1447,9 @@
       <c r="K12" s="17" t="n"/>
       <c r="L12" s="17" t="n"/>
       <c r="M12" s="17" t="n"/>
-      <c r="N12" s="17" t="n"/>
-      <c r="O12" s="29" t="n"/>
-      <c r="P12" s="29" t="n"/>
+      <c r="N12" s="28" t="n"/>
+      <c r="O12" s="28" t="n"/>
+      <c r="P12" s="17" t="n"/>
       <c r="Q12" s="17" t="n"/>
       <c r="R12" s="17" t="n"/>
       <c r="S12" s="17" t="n"/>
@@ -1389,28 +1461,29 @@
       <c r="Y12" s="17" t="n"/>
       <c r="Z12" s="17" t="n"/>
       <c r="AA12" s="17" t="n"/>
-    </row>
-    <row r="13" ht="22" customHeight="1">
+      <c r="AB12" s="17" t="n"/>
+    </row>
+    <row r="13" ht="20" customHeight="1">
       <c r="A13" s="18" t="inlineStr"/>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>Intégration FreeRADIUS + tables RADIUS</t>
-        </is>
-      </c>
+      <c r="B13" s="19" t="inlineStr"/>
       <c r="C13" s="19" t="inlineStr">
         <is>
-          <t>08/11/25</t>
-        </is>
-      </c>
-      <c r="D13" s="19" t="inlineStr">
-        <is>
-          <t>21/11/25</t>
-        </is>
-      </c>
-      <c r="E13" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="F13" s="20" t="inlineStr"/>
+          <t xml:space="preserve">  Modèles Django (User, Profile...)</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>28/10</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>07/11</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>11</v>
+      </c>
       <c r="G13" s="17" t="n"/>
       <c r="H13" s="17" t="n"/>
       <c r="I13" s="17" t="n"/>
@@ -1419,10 +1492,10 @@
       <c r="L13" s="17" t="n"/>
       <c r="M13" s="17" t="n"/>
       <c r="N13" s="17" t="n"/>
-      <c r="O13" s="17" t="n"/>
-      <c r="P13" s="29" t="n"/>
-      <c r="Q13" s="29" t="n"/>
-      <c r="R13" s="29" t="n"/>
+      <c r="O13" s="28" t="n"/>
+      <c r="P13" s="28" t="n"/>
+      <c r="Q13" s="17" t="n"/>
+      <c r="R13" s="17" t="n"/>
       <c r="S13" s="17" t="n"/>
       <c r="T13" s="17" t="n"/>
       <c r="U13" s="17" t="n"/>
@@ -1432,35 +1505,28 @@
       <c r="Y13" s="17" t="n"/>
       <c r="Z13" s="17" t="n"/>
       <c r="AA13" s="17" t="n"/>
-    </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="21" t="inlineStr">
-        <is>
-          <t>⚠️ PAUSE</t>
-        </is>
-      </c>
-      <c r="B14" s="21" t="inlineStr">
-        <is>
-          <t>Examens et projets parallèles</t>
-        </is>
-      </c>
-      <c r="C14" s="22" t="inlineStr">
-        <is>
-          <t>22/11/25</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>01/12/25</t>
-        </is>
-      </c>
-      <c r="E14" s="22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" s="23" t="inlineStr">
-        <is>
-          <t>Période d'examens + autres travaux</t>
-        </is>
+      <c r="AB13" s="17" t="n"/>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="18" t="inlineStr"/>
+      <c r="B14" s="19" t="inlineStr"/>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Intégration FreeRADIUS</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>08/11</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>21/11</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>14</v>
       </c>
       <c r="G14" s="17" t="n"/>
       <c r="H14" s="17" t="n"/>
@@ -1471,11 +1537,11 @@
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="17" t="n"/>
       <c r="O14" s="17" t="n"/>
-      <c r="P14" s="17" t="n"/>
-      <c r="Q14" s="17" t="n"/>
-      <c r="R14" s="24" t="n"/>
-      <c r="S14" s="24" t="n"/>
-      <c r="T14" s="24" t="n"/>
+      <c r="P14" s="28" t="n"/>
+      <c r="Q14" s="28" t="n"/>
+      <c r="R14" s="28" t="n"/>
+      <c r="S14" s="17" t="n"/>
+      <c r="T14" s="17" t="n"/>
       <c r="U14" s="17" t="n"/>
       <c r="V14" s="17" t="n"/>
       <c r="W14" s="17" t="n"/>
@@ -1483,31 +1549,32 @@
       <c r="Y14" s="17" t="n"/>
       <c r="Z14" s="17" t="n"/>
       <c r="AA14" s="17" t="n"/>
+      <c r="AB14" s="17" t="n"/>
     </row>
     <row r="15" ht="22" customHeight="1">
-      <c r="A15" s="18" t="inlineStr"/>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>API REST (ViewSets, Serializers)</t>
-        </is>
-      </c>
-      <c r="C15" s="19" t="inlineStr">
-        <is>
-          <t>02/12/25</t>
-        </is>
-      </c>
-      <c r="D15" s="19" t="inlineStr">
-        <is>
-          <t>10/12/25</t>
-        </is>
-      </c>
-      <c r="E15" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F15" s="20" t="inlineStr">
-        <is>
-          <t>Reprise intensive</t>
-        </is>
+      <c r="A15" s="21" t="inlineStr"/>
+      <c r="B15" s="22" t="inlineStr">
+        <is>
+          <t>⚠️ PAUSE 2</t>
+        </is>
+      </c>
+      <c r="C15" s="22" t="inlineStr">
+        <is>
+          <t>Examens + projets parallèles</t>
+        </is>
+      </c>
+      <c r="D15" s="23" t="inlineStr">
+        <is>
+          <t>22/11</t>
+        </is>
+      </c>
+      <c r="E15" s="23" t="inlineStr">
+        <is>
+          <t>01/12</t>
+        </is>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>10</v>
       </c>
       <c r="G15" s="17" t="n"/>
       <c r="H15" s="17" t="n"/>
@@ -1520,38 +1587,39 @@
       <c r="O15" s="17" t="n"/>
       <c r="P15" s="17" t="n"/>
       <c r="Q15" s="17" t="n"/>
-      <c r="R15" s="17" t="n"/>
-      <c r="S15" s="17" t="n"/>
-      <c r="T15" s="29" t="n"/>
-      <c r="U15" s="29" t="n"/>
+      <c r="R15" s="24" t="n"/>
+      <c r="S15" s="24" t="n"/>
+      <c r="T15" s="24" t="n"/>
+      <c r="U15" s="17" t="n"/>
       <c r="V15" s="17" t="n"/>
       <c r="W15" s="17" t="n"/>
       <c r="X15" s="17" t="n"/>
       <c r="Y15" s="17" t="n"/>
       <c r="Z15" s="17" t="n"/>
       <c r="AA15" s="17" t="n"/>
-    </row>
-    <row r="16" ht="22" customHeight="1">
+      <c r="AB15" s="17" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1">
       <c r="A16" s="18" t="inlineStr"/>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t>Service de synchronisation RADIUS</t>
-        </is>
-      </c>
+      <c r="B16" s="19" t="inlineStr"/>
       <c r="C16" s="19" t="inlineStr">
         <is>
-          <t>11/12/25</t>
-        </is>
-      </c>
-      <c r="D16" s="19" t="inlineStr">
-        <is>
-          <t>16/12/25</t>
-        </is>
-      </c>
-      <c r="E16" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" s="20" t="inlineStr"/>
+          <t xml:space="preserve">  API REST (ViewSets, Serializers)</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E16" s="20" t="inlineStr">
+        <is>
+          <t>10/12</t>
+        </is>
+      </c>
+      <c r="F16" s="20" t="n">
+        <v>9</v>
+      </c>
       <c r="G16" s="17" t="n"/>
       <c r="H16" s="17" t="n"/>
       <c r="I16" s="17" t="n"/>
@@ -1565,43 +1633,36 @@
       <c r="Q16" s="17" t="n"/>
       <c r="R16" s="17" t="n"/>
       <c r="S16" s="17" t="n"/>
-      <c r="T16" s="17" t="n"/>
-      <c r="U16" s="29" t="n"/>
-      <c r="V16" s="29" t="n"/>
+      <c r="T16" s="28" t="n"/>
+      <c r="U16" s="28" t="n"/>
+      <c r="V16" s="17" t="n"/>
       <c r="W16" s="17" t="n"/>
       <c r="X16" s="17" t="n"/>
       <c r="Y16" s="17" t="n"/>
       <c r="Z16" s="17" t="n"/>
       <c r="AA16" s="17" t="n"/>
-    </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" s="30" t="inlineStr">
-        <is>
-          <t>Phase 3: Développement Frontend</t>
-        </is>
-      </c>
-      <c r="B17" s="31" t="inlineStr">
-        <is>
-          <t>Setup Vue.js 3 + Vite + composants</t>
-        </is>
-      </c>
-      <c r="C17" s="32" t="inlineStr">
-        <is>
-          <t>02/12/25</t>
-        </is>
-      </c>
-      <c r="D17" s="32" t="inlineStr">
-        <is>
-          <t>05/12/25</t>
-        </is>
-      </c>
-      <c r="E17" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" s="33" t="inlineStr">
-        <is>
-          <t>En parallèle avec API</t>
-        </is>
+      <c r="AB16" s="17" t="n"/>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="18" t="inlineStr"/>
+      <c r="B17" s="19" t="inlineStr"/>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Sync RADIUS</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr">
+        <is>
+          <t>11/12</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>16/12</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>6</v>
       </c>
       <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="n"/>
@@ -1616,36 +1677,43 @@
       <c r="Q17" s="17" t="n"/>
       <c r="R17" s="17" t="n"/>
       <c r="S17" s="17" t="n"/>
-      <c r="T17" s="34" t="n"/>
-      <c r="U17" s="17" t="n"/>
-      <c r="V17" s="17" t="n"/>
+      <c r="T17" s="17" t="n"/>
+      <c r="U17" s="28" t="n"/>
+      <c r="V17" s="28" t="n"/>
       <c r="W17" s="17" t="n"/>
       <c r="X17" s="17" t="n"/>
       <c r="Y17" s="17" t="n"/>
       <c r="Z17" s="17" t="n"/>
       <c r="AA17" s="17" t="n"/>
+      <c r="AB17" s="17" t="n"/>
     </row>
     <row r="18" ht="22" customHeight="1">
-      <c r="A18" s="18" t="inlineStr"/>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t>Pages gestion utilisateurs</t>
-        </is>
-      </c>
-      <c r="C18" s="19" t="inlineStr">
-        <is>
-          <t>06/12/25</t>
-        </is>
-      </c>
-      <c r="D18" s="19" t="inlineStr">
-        <is>
-          <t>14/12/25</t>
-        </is>
-      </c>
-      <c r="E18" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" s="20" t="inlineStr"/>
+      <c r="A18" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="30" t="inlineStr">
+        <is>
+          <t>Phase 3</t>
+        </is>
+      </c>
+      <c r="C18" s="30" t="inlineStr">
+        <is>
+          <t>Développement Frontend</t>
+        </is>
+      </c>
+      <c r="D18" s="31" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>03/01</t>
+        </is>
+      </c>
+      <c r="F18" s="31" t="n">
+        <v>33</v>
+      </c>
       <c r="G18" s="17" t="n"/>
       <c r="H18" s="17" t="n"/>
       <c r="I18" s="17" t="n"/>
@@ -1659,36 +1727,37 @@
       <c r="Q18" s="17" t="n"/>
       <c r="R18" s="17" t="n"/>
       <c r="S18" s="17" t="n"/>
-      <c r="T18" s="34" t="n"/>
-      <c r="U18" s="34" t="n"/>
-      <c r="V18" s="17" t="n"/>
-      <c r="W18" s="17" t="n"/>
-      <c r="X18" s="17" t="n"/>
+      <c r="T18" s="32" t="n"/>
+      <c r="U18" s="32" t="n"/>
+      <c r="V18" s="32" t="n"/>
+      <c r="W18" s="32" t="n"/>
+      <c r="X18" s="32" t="n"/>
       <c r="Y18" s="17" t="n"/>
       <c r="Z18" s="17" t="n"/>
       <c r="AA18" s="17" t="n"/>
-    </row>
-    <row r="19" ht="22" customHeight="1">
+      <c r="AB18" s="17" t="n"/>
+    </row>
+    <row r="19" ht="20" customHeight="1">
       <c r="A19" s="18" t="inlineStr"/>
-      <c r="B19" s="18" t="inlineStr">
-        <is>
-          <t>Pages gestion profils + promotions</t>
-        </is>
-      </c>
+      <c r="B19" s="19" t="inlineStr"/>
       <c r="C19" s="19" t="inlineStr">
         <is>
-          <t>15/12/25</t>
-        </is>
-      </c>
-      <c r="D19" s="19" t="inlineStr">
-        <is>
-          <t>20/12/25</t>
-        </is>
-      </c>
-      <c r="E19" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" s="20" t="inlineStr"/>
+          <t xml:space="preserve">  Setup Vue.js 3 + Vite</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>05/12</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>4</v>
+      </c>
       <c r="G19" s="17" t="n"/>
       <c r="H19" s="17" t="n"/>
       <c r="I19" s="17" t="n"/>
@@ -1702,43 +1771,36 @@
       <c r="Q19" s="17" t="n"/>
       <c r="R19" s="17" t="n"/>
       <c r="S19" s="17" t="n"/>
-      <c r="T19" s="17" t="n"/>
+      <c r="T19" s="32" t="n"/>
       <c r="U19" s="17" t="n"/>
-      <c r="V19" s="34" t="n"/>
+      <c r="V19" s="17" t="n"/>
       <c r="W19" s="17" t="n"/>
       <c r="X19" s="17" t="n"/>
       <c r="Y19" s="17" t="n"/>
       <c r="Z19" s="17" t="n"/>
       <c r="AA19" s="17" t="n"/>
-    </row>
-    <row r="20" ht="22" customHeight="1">
-      <c r="A20" s="21" t="inlineStr">
-        <is>
-          <t>⚠️ PAUSE</t>
-        </is>
-      </c>
-      <c r="B20" s="21" t="inlineStr">
-        <is>
-          <t>Fêtes de fin d'année</t>
-        </is>
-      </c>
-      <c r="C20" s="22" t="inlineStr">
-        <is>
-          <t>21/12/25</t>
-        </is>
-      </c>
-      <c r="D20" s="22" t="inlineStr">
-        <is>
-          <t>28/12/25</t>
-        </is>
-      </c>
-      <c r="E20" s="22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F20" s="23" t="inlineStr">
-        <is>
-          <t>Congés de Noël</t>
-        </is>
+      <c r="AB19" s="17" t="n"/>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="18" t="inlineStr"/>
+      <c r="B20" s="19" t="inlineStr"/>
+      <c r="C20" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Pages gestion utilisateurs</t>
+        </is>
+      </c>
+      <c r="D20" s="20" t="inlineStr">
+        <is>
+          <t>06/12</t>
+        </is>
+      </c>
+      <c r="E20" s="20" t="inlineStr">
+        <is>
+          <t>14/12</t>
+        </is>
+      </c>
+      <c r="F20" s="20" t="n">
+        <v>9</v>
       </c>
       <c r="G20" s="17" t="n"/>
       <c r="H20" s="17" t="n"/>
@@ -1753,39 +1815,36 @@
       <c r="Q20" s="17" t="n"/>
       <c r="R20" s="17" t="n"/>
       <c r="S20" s="17" t="n"/>
-      <c r="T20" s="17" t="n"/>
-      <c r="U20" s="17" t="n"/>
-      <c r="V20" s="24" t="n"/>
-      <c r="W20" s="24" t="n"/>
+      <c r="T20" s="32" t="n"/>
+      <c r="U20" s="32" t="n"/>
+      <c r="V20" s="17" t="n"/>
+      <c r="W20" s="17" t="n"/>
       <c r="X20" s="17" t="n"/>
       <c r="Y20" s="17" t="n"/>
       <c r="Z20" s="17" t="n"/>
       <c r="AA20" s="17" t="n"/>
-    </row>
-    <row r="21" ht="22" customHeight="1">
+      <c r="AB20" s="17" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1">
       <c r="A21" s="18" t="inlineStr"/>
-      <c r="B21" s="18" t="inlineStr">
-        <is>
-          <t>Dashboard et statistiques (ApexCharts)</t>
-        </is>
-      </c>
+      <c r="B21" s="19" t="inlineStr"/>
       <c r="C21" s="19" t="inlineStr">
         <is>
-          <t>29/12/25</t>
-        </is>
-      </c>
-      <c r="D21" s="19" t="inlineStr">
-        <is>
-          <t>03/01/26</t>
-        </is>
-      </c>
-      <c r="E21" s="19" t="n">
+          <t xml:space="preserve">  Pages profils + promotions</t>
+        </is>
+      </c>
+      <c r="D21" s="20" t="inlineStr">
+        <is>
+          <t>15/12</t>
+        </is>
+      </c>
+      <c r="E21" s="20" t="inlineStr">
+        <is>
+          <t>20/12</t>
+        </is>
+      </c>
+      <c r="F21" s="20" t="n">
         <v>6</v>
-      </c>
-      <c r="F21" s="20" t="inlineStr">
-        <is>
-          <t>Reprise après fêtes</t>
-        </is>
       </c>
       <c r="G21" s="17" t="n"/>
       <c r="H21" s="17" t="n"/>
@@ -1802,38 +1861,39 @@
       <c r="S21" s="17" t="n"/>
       <c r="T21" s="17" t="n"/>
       <c r="U21" s="17" t="n"/>
-      <c r="V21" s="17" t="n"/>
+      <c r="V21" s="32" t="n"/>
       <c r="W21" s="17" t="n"/>
-      <c r="X21" s="34" t="n"/>
+      <c r="X21" s="17" t="n"/>
       <c r="Y21" s="17" t="n"/>
       <c r="Z21" s="17" t="n"/>
       <c r="AA21" s="17" t="n"/>
+      <c r="AB21" s="17" t="n"/>
     </row>
     <row r="22" ht="22" customHeight="1">
-      <c r="A22" s="35" t="inlineStr">
-        <is>
-          <t>Phase 4: Intégration MikroTik</t>
-        </is>
-      </c>
-      <c r="B22" s="36" t="inlineStr">
-        <is>
-          <t>Agent Node.js (RouterOS API)</t>
-        </is>
-      </c>
-      <c r="C22" s="37" t="inlineStr">
-        <is>
-          <t>02/01/26</t>
-        </is>
-      </c>
-      <c r="D22" s="37" t="inlineStr">
-        <is>
-          <t>06/01/26</t>
-        </is>
-      </c>
-      <c r="E22" s="37" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="38" t="inlineStr"/>
+      <c r="A22" s="21" t="inlineStr"/>
+      <c r="B22" s="22" t="inlineStr">
+        <is>
+          <t>⚠️ PAUSE 3</t>
+        </is>
+      </c>
+      <c r="C22" s="22" t="inlineStr">
+        <is>
+          <t>Fêtes de fin d'année</t>
+        </is>
+      </c>
+      <c r="D22" s="23" t="inlineStr">
+        <is>
+          <t>21/12</t>
+        </is>
+      </c>
+      <c r="E22" s="23" t="inlineStr">
+        <is>
+          <t>28/12</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="n">
+        <v>8</v>
+      </c>
       <c r="G22" s="17" t="n"/>
       <c r="H22" s="17" t="n"/>
       <c r="I22" s="17" t="n"/>
@@ -1849,34 +1909,35 @@
       <c r="S22" s="17" t="n"/>
       <c r="T22" s="17" t="n"/>
       <c r="U22" s="17" t="n"/>
-      <c r="V22" s="17" t="n"/>
-      <c r="W22" s="17" t="n"/>
-      <c r="X22" s="39" t="n"/>
-      <c r="Y22" s="39" t="n"/>
+      <c r="V22" s="24" t="n"/>
+      <c r="W22" s="24" t="n"/>
+      <c r="X22" s="17" t="n"/>
+      <c r="Y22" s="17" t="n"/>
       <c r="Z22" s="17" t="n"/>
       <c r="AA22" s="17" t="n"/>
-    </row>
-    <row r="23" ht="22" customHeight="1">
+      <c r="AB22" s="17" t="n"/>
+    </row>
+    <row r="23" ht="20" customHeight="1">
       <c r="A23" s="18" t="inlineStr"/>
-      <c r="B23" s="18" t="inlineStr">
-        <is>
-          <t>Hotspot Users Sync + DNS Blocking</t>
-        </is>
-      </c>
+      <c r="B23" s="19" t="inlineStr"/>
       <c r="C23" s="19" t="inlineStr">
         <is>
-          <t>07/01/26</t>
-        </is>
-      </c>
-      <c r="D23" s="19" t="inlineStr">
-        <is>
-          <t>10/01/26</t>
-        </is>
-      </c>
-      <c r="E23" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="20" t="inlineStr"/>
+          <t xml:space="preserve">  Dashboard + statistiques</t>
+        </is>
+      </c>
+      <c r="D23" s="20" t="inlineStr">
+        <is>
+          <t>29/12</t>
+        </is>
+      </c>
+      <c r="E23" s="20" t="inlineStr">
+        <is>
+          <t>03/01</t>
+        </is>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>6</v>
+      </c>
       <c r="G23" s="17" t="n"/>
       <c r="H23" s="17" t="n"/>
       <c r="I23" s="17" t="n"/>
@@ -1894,32 +1955,39 @@
       <c r="U23" s="17" t="n"/>
       <c r="V23" s="17" t="n"/>
       <c r="W23" s="17" t="n"/>
-      <c r="X23" s="17" t="n"/>
-      <c r="Y23" s="39" t="n"/>
+      <c r="X23" s="32" t="n"/>
+      <c r="Y23" s="17" t="n"/>
       <c r="Z23" s="17" t="n"/>
       <c r="AA23" s="17" t="n"/>
+      <c r="AB23" s="17" t="n"/>
     </row>
     <row r="24" ht="22" customHeight="1">
-      <c r="A24" s="18" t="inlineStr"/>
-      <c r="B24" s="18" t="inlineStr">
-        <is>
-          <t>Pages hotspot personnalisées</t>
-        </is>
-      </c>
-      <c r="C24" s="19" t="inlineStr">
-        <is>
-          <t>11/01/26</t>
-        </is>
-      </c>
-      <c r="D24" s="19" t="inlineStr">
-        <is>
-          <t>12/01/26</t>
-        </is>
-      </c>
-      <c r="E24" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" s="20" t="inlineStr"/>
+      <c r="A24" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="34" t="inlineStr">
+        <is>
+          <t>Phase 4</t>
+        </is>
+      </c>
+      <c r="C24" s="34" t="inlineStr">
+        <is>
+          <t>Intégration MikroTik</t>
+        </is>
+      </c>
+      <c r="D24" s="35" t="inlineStr">
+        <is>
+          <t>02/01</t>
+        </is>
+      </c>
+      <c r="E24" s="35" t="inlineStr">
+        <is>
+          <t>12/01</t>
+        </is>
+      </c>
+      <c r="F24" s="35" t="n">
+        <v>11</v>
+      </c>
       <c r="G24" s="17" t="n"/>
       <c r="H24" s="17" t="n"/>
       <c r="I24" s="17" t="n"/>
@@ -1937,39 +2005,32 @@
       <c r="U24" s="17" t="n"/>
       <c r="V24" s="17" t="n"/>
       <c r="W24" s="17" t="n"/>
-      <c r="X24" s="17" t="n"/>
-      <c r="Y24" s="39" t="n"/>
-      <c r="Z24" s="39" t="n"/>
+      <c r="X24" s="36" t="n"/>
+      <c r="Y24" s="36" t="n"/>
+      <c r="Z24" s="36" t="n"/>
       <c r="AA24" s="17" t="n"/>
-    </row>
-    <row r="25" ht="22" customHeight="1">
-      <c r="A25" s="40" t="inlineStr">
-        <is>
-          <t>Phase 5: Tests et Validation</t>
-        </is>
-      </c>
-      <c r="B25" s="41" t="inlineStr">
-        <is>
-          <t>Tests unitaires + intégration</t>
-        </is>
-      </c>
-      <c r="C25" s="22" t="inlineStr">
-        <is>
-          <t>13/01/26</t>
-        </is>
-      </c>
-      <c r="D25" s="22" t="inlineStr">
-        <is>
-          <t>15/01/26</t>
-        </is>
-      </c>
-      <c r="E25" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" s="42" t="inlineStr">
-        <is>
-          <t>Tests accélérés</t>
-        </is>
+      <c r="AB24" s="17" t="n"/>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="18" t="inlineStr"/>
+      <c r="B25" s="19" t="inlineStr"/>
+      <c r="C25" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Agent Node.js (RouterOS API)</t>
+        </is>
+      </c>
+      <c r="D25" s="20" t="inlineStr">
+        <is>
+          <t>02/01</t>
+        </is>
+      </c>
+      <c r="E25" s="20" t="inlineStr">
+        <is>
+          <t>06/01</t>
+        </is>
+      </c>
+      <c r="F25" s="20" t="n">
+        <v>5</v>
       </c>
       <c r="G25" s="17" t="n"/>
       <c r="H25" s="17" t="n"/>
@@ -1988,32 +2049,33 @@
       <c r="U25" s="17" t="n"/>
       <c r="V25" s="17" t="n"/>
       <c r="W25" s="17" t="n"/>
-      <c r="X25" s="17" t="n"/>
-      <c r="Y25" s="17" t="n"/>
-      <c r="Z25" s="43" t="n"/>
+      <c r="X25" s="36" t="n"/>
+      <c r="Y25" s="36" t="n"/>
+      <c r="Z25" s="17" t="n"/>
       <c r="AA25" s="17" t="n"/>
-    </row>
-    <row r="26" ht="22" customHeight="1">
+      <c r="AB25" s="17" t="n"/>
+    </row>
+    <row r="26" ht="20" customHeight="1">
       <c r="A26" s="18" t="inlineStr"/>
-      <c r="B26" s="18" t="inlineStr">
-        <is>
-          <t>Tests utilisateurs (UAT)</t>
-        </is>
-      </c>
+      <c r="B26" s="19" t="inlineStr"/>
       <c r="C26" s="19" t="inlineStr">
         <is>
-          <t>15/01/26</t>
-        </is>
-      </c>
-      <c r="D26" s="19" t="inlineStr">
-        <is>
-          <t>16/01/26</t>
-        </is>
-      </c>
-      <c r="E26" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="20" t="inlineStr"/>
+          <t xml:space="preserve">  Hotspot Sync + DNS Blocking</t>
+        </is>
+      </c>
+      <c r="D26" s="20" t="inlineStr">
+        <is>
+          <t>07/01</t>
+        </is>
+      </c>
+      <c r="E26" s="20" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
+      <c r="F26" s="20" t="n">
+        <v>4</v>
+      </c>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
       <c r="I26" s="17" t="n"/>
@@ -2032,35 +2094,32 @@
       <c r="V26" s="17" t="n"/>
       <c r="W26" s="17" t="n"/>
       <c r="X26" s="17" t="n"/>
-      <c r="Y26" s="17" t="n"/>
-      <c r="Z26" s="43" t="n"/>
+      <c r="Y26" s="36" t="n"/>
+      <c r="Z26" s="17" t="n"/>
       <c r="AA26" s="17" t="n"/>
-    </row>
-    <row r="27" ht="22" customHeight="1">
-      <c r="A27" s="44" t="inlineStr">
-        <is>
-          <t>Phase 6: Documentation</t>
-        </is>
-      </c>
-      <c r="B27" s="45" t="inlineStr">
-        <is>
-          <t>Rapport technique + PPT</t>
-        </is>
-      </c>
-      <c r="C27" s="46" t="inlineStr">
-        <is>
-          <t>16/01/26</t>
-        </is>
-      </c>
-      <c r="D27" s="46" t="inlineStr">
-        <is>
-          <t>19/01/26</t>
-        </is>
-      </c>
-      <c r="E27" s="46" t="n">
-        <v>4</v>
-      </c>
-      <c r="F27" s="47" t="inlineStr"/>
+      <c r="AB26" s="17" t="n"/>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="18" t="inlineStr"/>
+      <c r="B27" s="19" t="inlineStr"/>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Pages hotspot personnalisées</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>11/01</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>12/01</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>2</v>
+      </c>
       <c r="G27" s="17" t="n"/>
       <c r="H27" s="17" t="n"/>
       <c r="I27" s="17" t="n"/>
@@ -2079,34 +2138,37 @@
       <c r="V27" s="17" t="n"/>
       <c r="W27" s="17" t="n"/>
       <c r="X27" s="17" t="n"/>
-      <c r="Y27" s="17" t="n"/>
-      <c r="Z27" s="48" t="n"/>
-      <c r="AA27" s="48" t="n"/>
+      <c r="Y27" s="36" t="n"/>
+      <c r="Z27" s="36" t="n"/>
+      <c r="AA27" s="17" t="n"/>
+      <c r="AB27" s="17" t="n"/>
     </row>
     <row r="28" ht="22" customHeight="1">
-      <c r="A28" s="18" t="inlineStr"/>
-      <c r="B28" s="18" t="inlineStr">
-        <is>
-          <t>📌 SOUTENANCE</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>20/01/26</t>
-        </is>
-      </c>
-      <c r="D28" s="19" t="inlineStr">
-        <is>
-          <t>20/01/26</t>
-        </is>
-      </c>
-      <c r="E28" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20" t="inlineStr">
-        <is>
-          <t>Présentation finale</t>
-        </is>
+      <c r="A28" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="37" t="inlineStr">
+        <is>
+          <t>Phase 5</t>
+        </is>
+      </c>
+      <c r="C28" s="37" t="inlineStr">
+        <is>
+          <t>Tests et Validation</t>
+        </is>
+      </c>
+      <c r="D28" s="23" t="inlineStr">
+        <is>
+          <t>13/01</t>
+        </is>
+      </c>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>16/01</t>
+        </is>
+      </c>
+      <c r="F28" s="23" t="n">
+        <v>4</v>
       </c>
       <c r="G28" s="17" t="n"/>
       <c r="H28" s="17" t="n"/>
@@ -2127,116 +2189,638 @@
       <c r="W28" s="17" t="n"/>
       <c r="X28" s="17" t="n"/>
       <c r="Y28" s="17" t="n"/>
-      <c r="Z28" s="17" t="n"/>
-      <c r="AA28" s="48" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="49" t="inlineStr">
+      <c r="Z28" s="38" t="n"/>
+      <c r="AA28" s="17" t="n"/>
+      <c r="AB28" s="17" t="n"/>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="18" t="inlineStr"/>
+      <c r="B29" s="19" t="inlineStr"/>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Tests unitaires + intégration</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>13/01</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>15/01</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="17" t="n"/>
+      <c r="H29" s="17" t="n"/>
+      <c r="I29" s="17" t="n"/>
+      <c r="J29" s="17" t="n"/>
+      <c r="K29" s="17" t="n"/>
+      <c r="L29" s="17" t="n"/>
+      <c r="M29" s="17" t="n"/>
+      <c r="N29" s="17" t="n"/>
+      <c r="O29" s="17" t="n"/>
+      <c r="P29" s="17" t="n"/>
+      <c r="Q29" s="17" t="n"/>
+      <c r="R29" s="17" t="n"/>
+      <c r="S29" s="17" t="n"/>
+      <c r="T29" s="17" t="n"/>
+      <c r="U29" s="17" t="n"/>
+      <c r="V29" s="17" t="n"/>
+      <c r="W29" s="17" t="n"/>
+      <c r="X29" s="17" t="n"/>
+      <c r="Y29" s="17" t="n"/>
+      <c r="Z29" s="38" t="n"/>
+      <c r="AA29" s="17" t="n"/>
+      <c r="AB29" s="17" t="n"/>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="18" t="inlineStr"/>
+      <c r="B30" s="19" t="inlineStr"/>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Tests utilisateurs (UAT)</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>15/01</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>16/01</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="17" t="n"/>
+      <c r="H30" s="17" t="n"/>
+      <c r="I30" s="17" t="n"/>
+      <c r="J30" s="17" t="n"/>
+      <c r="K30" s="17" t="n"/>
+      <c r="L30" s="17" t="n"/>
+      <c r="M30" s="17" t="n"/>
+      <c r="N30" s="17" t="n"/>
+      <c r="O30" s="17" t="n"/>
+      <c r="P30" s="17" t="n"/>
+      <c r="Q30" s="17" t="n"/>
+      <c r="R30" s="17" t="n"/>
+      <c r="S30" s="17" t="n"/>
+      <c r="T30" s="17" t="n"/>
+      <c r="U30" s="17" t="n"/>
+      <c r="V30" s="17" t="n"/>
+      <c r="W30" s="17" t="n"/>
+      <c r="X30" s="17" t="n"/>
+      <c r="Y30" s="17" t="n"/>
+      <c r="Z30" s="38" t="n"/>
+      <c r="AA30" s="17" t="n"/>
+      <c r="AB30" s="17" t="n"/>
+    </row>
+    <row r="31" ht="22" customHeight="1">
+      <c r="A31" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B31" s="40" t="inlineStr">
+        <is>
+          <t>Phase 6</t>
+        </is>
+      </c>
+      <c r="C31" s="40" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Soutenance</t>
+        </is>
+      </c>
+      <c r="D31" s="41" t="inlineStr">
+        <is>
+          <t>16/01</t>
+        </is>
+      </c>
+      <c r="E31" s="41" t="inlineStr">
+        <is>
+          <t>20/01</t>
+        </is>
+      </c>
+      <c r="F31" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" s="17" t="n"/>
+      <c r="H31" s="17" t="n"/>
+      <c r="I31" s="17" t="n"/>
+      <c r="J31" s="17" t="n"/>
+      <c r="K31" s="17" t="n"/>
+      <c r="L31" s="17" t="n"/>
+      <c r="M31" s="17" t="n"/>
+      <c r="N31" s="17" t="n"/>
+      <c r="O31" s="17" t="n"/>
+      <c r="P31" s="17" t="n"/>
+      <c r="Q31" s="17" t="n"/>
+      <c r="R31" s="17" t="n"/>
+      <c r="S31" s="17" t="n"/>
+      <c r="T31" s="17" t="n"/>
+      <c r="U31" s="17" t="n"/>
+      <c r="V31" s="17" t="n"/>
+      <c r="W31" s="17" t="n"/>
+      <c r="X31" s="17" t="n"/>
+      <c r="Y31" s="17" t="n"/>
+      <c r="Z31" s="42" t="n"/>
+      <c r="AA31" s="42" t="n"/>
+      <c r="AB31" s="17" t="n"/>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="18" t="inlineStr"/>
+      <c r="B32" s="19" t="inlineStr"/>
+      <c r="C32" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Rapport technique + PPT</t>
+        </is>
+      </c>
+      <c r="D32" s="20" t="inlineStr">
+        <is>
+          <t>16/01</t>
+        </is>
+      </c>
+      <c r="E32" s="20" t="inlineStr">
+        <is>
+          <t>19/01</t>
+        </is>
+      </c>
+      <c r="F32" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="17" t="n"/>
+      <c r="H32" s="17" t="n"/>
+      <c r="I32" s="17" t="n"/>
+      <c r="J32" s="17" t="n"/>
+      <c r="K32" s="17" t="n"/>
+      <c r="L32" s="17" t="n"/>
+      <c r="M32" s="17" t="n"/>
+      <c r="N32" s="17" t="n"/>
+      <c r="O32" s="17" t="n"/>
+      <c r="P32" s="17" t="n"/>
+      <c r="Q32" s="17" t="n"/>
+      <c r="R32" s="17" t="n"/>
+      <c r="S32" s="17" t="n"/>
+      <c r="T32" s="17" t="n"/>
+      <c r="U32" s="17" t="n"/>
+      <c r="V32" s="17" t="n"/>
+      <c r="W32" s="17" t="n"/>
+      <c r="X32" s="17" t="n"/>
+      <c r="Y32" s="17" t="n"/>
+      <c r="Z32" s="42" t="n"/>
+      <c r="AA32" s="42" t="n"/>
+      <c r="AB32" s="17" t="n"/>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="18" t="inlineStr"/>
+      <c r="B33" s="19" t="inlineStr"/>
+      <c r="C33" s="19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  📌 SOUTENANCE</t>
+        </is>
+      </c>
+      <c r="D33" s="20" t="inlineStr">
+        <is>
+          <t>20/01</t>
+        </is>
+      </c>
+      <c r="E33" s="20" t="inlineStr">
+        <is>
+          <t>20/01</t>
+        </is>
+      </c>
+      <c r="F33" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17" t="n"/>
+      <c r="H33" s="17" t="n"/>
+      <c r="I33" s="17" t="n"/>
+      <c r="J33" s="17" t="n"/>
+      <c r="K33" s="17" t="n"/>
+      <c r="L33" s="17" t="n"/>
+      <c r="M33" s="17" t="n"/>
+      <c r="N33" s="17" t="n"/>
+      <c r="O33" s="17" t="n"/>
+      <c r="P33" s="17" t="n"/>
+      <c r="Q33" s="17" t="n"/>
+      <c r="R33" s="17" t="n"/>
+      <c r="S33" s="17" t="n"/>
+      <c r="T33" s="17" t="n"/>
+      <c r="U33" s="17" t="n"/>
+      <c r="V33" s="17" t="n"/>
+      <c r="W33" s="17" t="n"/>
+      <c r="X33" s="17" t="n"/>
+      <c r="Y33" s="17" t="n"/>
+      <c r="Z33" s="17" t="n"/>
+      <c r="AA33" s="42" t="n"/>
+      <c r="AB33" s="17" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="43" t="inlineStr"/>
+      <c r="B35" s="44" t="inlineStr">
+        <is>
+          <t>PLANNING PRÉVISIONNEL (comparaison)</t>
+        </is>
+      </c>
+      <c r="C35" s="43" t="n"/>
+      <c r="D35" s="43" t="n"/>
+      <c r="E35" s="43" t="n"/>
+      <c r="F35" s="43" t="n"/>
+      <c r="G35" s="43" t="n"/>
+      <c r="H35" s="43" t="n"/>
+      <c r="I35" s="43" t="n"/>
+      <c r="J35" s="43" t="n"/>
+      <c r="K35" s="43" t="n"/>
+      <c r="L35" s="43" t="n"/>
+      <c r="M35" s="43" t="n"/>
+      <c r="N35" s="43" t="n"/>
+      <c r="O35" s="43" t="n"/>
+      <c r="P35" s="43" t="n"/>
+      <c r="Q35" s="43" t="n"/>
+      <c r="R35" s="43" t="n"/>
+      <c r="S35" s="43" t="n"/>
+      <c r="T35" s="43" t="n"/>
+      <c r="U35" s="43" t="n"/>
+      <c r="V35" s="43" t="n"/>
+      <c r="W35" s="43" t="n"/>
+      <c r="X35" s="43" t="n"/>
+      <c r="Y35" s="43" t="n"/>
+      <c r="Z35" s="43" t="n"/>
+      <c r="AA35" s="43" t="n"/>
+      <c r="AB35" s="43" t="n"/>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="18" t="inlineStr"/>
+      <c r="B36" s="45" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C36" s="19" t="inlineStr">
+        <is>
+          <t>Analyse et Conception</t>
+        </is>
+      </c>
+      <c r="D36" s="20" t="inlineStr">
+        <is>
+          <t>01/09</t>
+        </is>
+      </c>
+      <c r="E36" s="20" t="inlineStr">
+        <is>
+          <t>30/09</t>
+        </is>
+      </c>
+      <c r="F36" s="20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" s="16" t="n"/>
+      <c r="H36" s="16" t="n"/>
+      <c r="I36" s="16" t="n"/>
+      <c r="J36" s="16" t="n"/>
+      <c r="K36" s="16" t="n"/>
+      <c r="L36" s="17" t="n"/>
+      <c r="M36" s="17" t="n"/>
+      <c r="N36" s="17" t="n"/>
+      <c r="O36" s="17" t="n"/>
+      <c r="P36" s="17" t="n"/>
+      <c r="Q36" s="17" t="n"/>
+      <c r="R36" s="17" t="n"/>
+      <c r="S36" s="17" t="n"/>
+      <c r="T36" s="17" t="n"/>
+      <c r="U36" s="17" t="n"/>
+      <c r="V36" s="17" t="n"/>
+      <c r="W36" s="17" t="n"/>
+      <c r="X36" s="17" t="n"/>
+      <c r="Y36" s="17" t="n"/>
+      <c r="Z36" s="17" t="n"/>
+      <c r="AA36" s="17" t="n"/>
+      <c r="AB36" s="17" t="n"/>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="18" t="inlineStr"/>
+      <c r="B37" s="45" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="C37" s="19" t="inlineStr">
+        <is>
+          <t>Développement Backend</t>
+        </is>
+      </c>
+      <c r="D37" s="20" t="inlineStr">
+        <is>
+          <t>01/10</t>
+        </is>
+      </c>
+      <c r="E37" s="20" t="inlineStr">
+        <is>
+          <t>20/11</t>
+        </is>
+      </c>
+      <c r="F37" s="20" t="n">
+        <v>51</v>
+      </c>
+      <c r="G37" s="17" t="n"/>
+      <c r="H37" s="17" t="n"/>
+      <c r="I37" s="17" t="n"/>
+      <c r="J37" s="17" t="n"/>
+      <c r="K37" s="28" t="n"/>
+      <c r="L37" s="28" t="n"/>
+      <c r="M37" s="28" t="n"/>
+      <c r="N37" s="28" t="n"/>
+      <c r="O37" s="28" t="n"/>
+      <c r="P37" s="28" t="n"/>
+      <c r="Q37" s="28" t="n"/>
+      <c r="R37" s="28" t="n"/>
+      <c r="S37" s="17" t="n"/>
+      <c r="T37" s="17" t="n"/>
+      <c r="U37" s="17" t="n"/>
+      <c r="V37" s="17" t="n"/>
+      <c r="W37" s="17" t="n"/>
+      <c r="X37" s="17" t="n"/>
+      <c r="Y37" s="17" t="n"/>
+      <c r="Z37" s="17" t="n"/>
+      <c r="AA37" s="17" t="n"/>
+      <c r="AB37" s="17" t="n"/>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="18" t="inlineStr"/>
+      <c r="B38" s="45" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="C38" s="19" t="inlineStr">
+        <is>
+          <t>Développement Frontend</t>
+        </is>
+      </c>
+      <c r="D38" s="20" t="inlineStr">
+        <is>
+          <t>01/11</t>
+        </is>
+      </c>
+      <c r="E38" s="20" t="inlineStr">
+        <is>
+          <t>15/12</t>
+        </is>
+      </c>
+      <c r="F38" s="20" t="n">
+        <v>45</v>
+      </c>
+      <c r="G38" s="17" t="n"/>
+      <c r="H38" s="17" t="n"/>
+      <c r="I38" s="17" t="n"/>
+      <c r="J38" s="17" t="n"/>
+      <c r="K38" s="17" t="n"/>
+      <c r="L38" s="17" t="n"/>
+      <c r="M38" s="17" t="n"/>
+      <c r="N38" s="17" t="n"/>
+      <c r="O38" s="32" t="n"/>
+      <c r="P38" s="32" t="n"/>
+      <c r="Q38" s="32" t="n"/>
+      <c r="R38" s="32" t="n"/>
+      <c r="S38" s="32" t="n"/>
+      <c r="T38" s="32" t="n"/>
+      <c r="U38" s="32" t="n"/>
+      <c r="V38" s="32" t="n"/>
+      <c r="W38" s="17" t="n"/>
+      <c r="X38" s="17" t="n"/>
+      <c r="Y38" s="17" t="n"/>
+      <c r="Z38" s="17" t="n"/>
+      <c r="AA38" s="17" t="n"/>
+      <c r="AB38" s="17" t="n"/>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="18" t="inlineStr"/>
+      <c r="B39" s="45" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="C39" s="19" t="inlineStr">
+        <is>
+          <t>Intégration MikroTik</t>
+        </is>
+      </c>
+      <c r="D39" s="20" t="inlineStr">
+        <is>
+          <t>01/12</t>
+        </is>
+      </c>
+      <c r="E39" s="20" t="inlineStr">
+        <is>
+          <t>31/12</t>
+        </is>
+      </c>
+      <c r="F39" s="20" t="n">
+        <v>31</v>
+      </c>
+      <c r="G39" s="17" t="n"/>
+      <c r="H39" s="17" t="n"/>
+      <c r="I39" s="17" t="n"/>
+      <c r="J39" s="17" t="n"/>
+      <c r="K39" s="17" t="n"/>
+      <c r="L39" s="17" t="n"/>
+      <c r="M39" s="17" t="n"/>
+      <c r="N39" s="17" t="n"/>
+      <c r="O39" s="17" t="n"/>
+      <c r="P39" s="17" t="n"/>
+      <c r="Q39" s="17" t="n"/>
+      <c r="R39" s="17" t="n"/>
+      <c r="S39" s="17" t="n"/>
+      <c r="T39" s="36" t="n"/>
+      <c r="U39" s="36" t="n"/>
+      <c r="V39" s="36" t="n"/>
+      <c r="W39" s="36" t="n"/>
+      <c r="X39" s="36" t="n"/>
+      <c r="Y39" s="17" t="n"/>
+      <c r="Z39" s="17" t="n"/>
+      <c r="AA39" s="17" t="n"/>
+      <c r="AB39" s="17" t="n"/>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="18" t="inlineStr"/>
+      <c r="B40" s="45" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="C40" s="19" t="inlineStr">
+        <is>
+          <t>Tests et Validation</t>
+        </is>
+      </c>
+      <c r="D40" s="20" t="inlineStr">
+        <is>
+          <t>02/01</t>
+        </is>
+      </c>
+      <c r="E40" s="20" t="inlineStr">
+        <is>
+          <t>13/01</t>
+        </is>
+      </c>
+      <c r="F40" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G40" s="17" t="n"/>
+      <c r="H40" s="17" t="n"/>
+      <c r="I40" s="17" t="n"/>
+      <c r="J40" s="17" t="n"/>
+      <c r="K40" s="17" t="n"/>
+      <c r="L40" s="17" t="n"/>
+      <c r="M40" s="17" t="n"/>
+      <c r="N40" s="17" t="n"/>
+      <c r="O40" s="17" t="n"/>
+      <c r="P40" s="17" t="n"/>
+      <c r="Q40" s="17" t="n"/>
+      <c r="R40" s="17" t="n"/>
+      <c r="S40" s="17" t="n"/>
+      <c r="T40" s="17" t="n"/>
+      <c r="U40" s="17" t="n"/>
+      <c r="V40" s="17" t="n"/>
+      <c r="W40" s="17" t="n"/>
+      <c r="X40" s="38" t="n"/>
+      <c r="Y40" s="38" t="n"/>
+      <c r="Z40" s="38" t="n"/>
+      <c r="AA40" s="17" t="n"/>
+      <c r="AB40" s="17" t="n"/>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="18" t="inlineStr"/>
+      <c r="B41" s="45" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="C41" s="19" t="inlineStr">
+        <is>
+          <t>Documentation &amp; Soutenance</t>
+        </is>
+      </c>
+      <c r="D41" s="20" t="inlineStr">
+        <is>
+          <t>10/01</t>
+        </is>
+      </c>
+      <c r="E41" s="20" t="inlineStr">
+        <is>
+          <t>16/01</t>
+        </is>
+      </c>
+      <c r="F41" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" s="17" t="n"/>
+      <c r="H41" s="17" t="n"/>
+      <c r="I41" s="17" t="n"/>
+      <c r="J41" s="17" t="n"/>
+      <c r="K41" s="17" t="n"/>
+      <c r="L41" s="17" t="n"/>
+      <c r="M41" s="17" t="n"/>
+      <c r="N41" s="17" t="n"/>
+      <c r="O41" s="17" t="n"/>
+      <c r="P41" s="17" t="n"/>
+      <c r="Q41" s="17" t="n"/>
+      <c r="R41" s="17" t="n"/>
+      <c r="S41" s="17" t="n"/>
+      <c r="T41" s="17" t="n"/>
+      <c r="U41" s="17" t="n"/>
+      <c r="V41" s="17" t="n"/>
+      <c r="W41" s="17" t="n"/>
+      <c r="X41" s="17" t="n"/>
+      <c r="Y41" s="42" t="n"/>
+      <c r="Z41" s="42" t="n"/>
+      <c r="AA41" s="17" t="n"/>
+      <c r="AB41" s="17" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="46" t="inlineStr">
         <is>
           <t>LÉGENDE</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="50" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B31" s="51" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="16" t="inlineStr"/>
+      <c r="B44" s="47" t="inlineStr">
         <is>
           <t>Phase 1 — Analyse et Conception</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="52" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B32" s="51" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="28" t="inlineStr"/>
+      <c r="B45" s="47" t="inlineStr">
         <is>
           <t>Phase 2 — Développement Backend</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="53" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B33" s="51" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="32" t="inlineStr"/>
+      <c r="B46" s="47" t="inlineStr">
         <is>
           <t>Phase 3 — Développement Frontend</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="54" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B34" s="51" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="36" t="inlineStr"/>
+      <c r="B47" s="47" t="inlineStr">
         <is>
           <t>Phase 4 — Intégration MikroTik</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="55" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B35" s="51" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="38" t="inlineStr"/>
+      <c r="B48" s="47" t="inlineStr">
         <is>
           <t>Phase 5 — Tests et Validation</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="56" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B36" s="51" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="42" t="inlineStr"/>
+      <c r="B49" s="47" t="inlineStr">
         <is>
           <t>Phase 6 — Documentation &amp; Soutenance</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="57" t="inlineStr">
-        <is>
-          <t>██</t>
-        </is>
-      </c>
-      <c r="B37" s="51" t="inlineStr">
-        <is>
-          <t>⚠️ Pause — Autres projets / Examens / Congés</t>
+    <row r="50">
+      <c r="A50" s="24" t="inlineStr"/>
+      <c r="B50" s="47" t="inlineStr">
+        <is>
+          <t>⚠️ PAUSE — Autres projets / Examens / Congés</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="A30:F30"/>
+  <mergeCells count="16">
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="T3:X3"/>
     <mergeCell ref="B35:F35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2259,18 +2843,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="55" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="58" t="inlineStr">
+      <c r="A1" s="48" t="inlineStr">
         <is>
           <t>ANALYSE DES ÉCARTS — PLANNING PRÉVISIONNEL vs RÉEL</t>
         </is>
@@ -2279,7 +2863,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Projet Portail Captif WiFi UCAC-ICAM  |  Sept. 2025 — Jan. 2026</t>
+          <t>Portail Captif WiFi UCAC-ICAM  |  Sept. 2025 — Jan. 2026</t>
         </is>
       </c>
     </row>
@@ -2296,22 +2880,26 @@
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>Début Prévu</t>
+          <t>Début
+Prévu</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr">
         <is>
-          <t>Fin Prévue</t>
+          <t>Fin
+Prévue</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>Début Réel</t>
+          <t>Début
+Réel</t>
         </is>
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
-          <t>Fin Réelle</t>
+          <t>Fin
+Réelle</t>
         </is>
       </c>
       <c r="G4" s="11" t="inlineStr">
@@ -2331,226 +2919,226 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" s="59" t="n">
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="50" t="inlineStr">
         <is>
           <t>Phase 1: Analyse et Conception</t>
         </is>
       </c>
-      <c r="C5" s="59" t="inlineStr">
+      <c r="C5" s="49" t="inlineStr">
         <is>
           <t>01/09/25</t>
         </is>
       </c>
-      <c r="D5" s="59" t="inlineStr">
+      <c r="D5" s="49" t="inlineStr">
         <is>
           <t>30/09/25</t>
         </is>
       </c>
-      <c r="E5" s="59" t="inlineStr">
+      <c r="E5" s="49" t="inlineStr">
         <is>
           <t>01/09/25</t>
         </is>
       </c>
-      <c r="F5" s="59" t="inlineStr">
+      <c r="F5" s="49" t="inlineStr">
         <is>
           <t>20/10/25</t>
         </is>
       </c>
-      <c r="G5" s="60" t="n">
+      <c r="G5" s="51" t="n">
         <v>20</v>
       </c>
-      <c r="H5" s="60" t="inlineStr">
+      <c r="H5" s="51" t="inlineStr">
         <is>
           <t>+20j</t>
         </is>
       </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>Pause de ~2,5 semaines (26 sept — 12 oct) pour travail sur d'autres projets académiques non liés au portail captif</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="61" t="n">
+      <c r="I5" s="52" t="inlineStr">
+        <is>
+          <t>Pause de ~2,5 sem. (26/09–12/10) pour travail sur d'autres projets académiques non liés au portail captif.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="inlineStr">
+      <c r="B6" s="54" t="inlineStr">
         <is>
           <t>Phase 2: Développement Backend</t>
         </is>
       </c>
-      <c r="C6" s="61" t="inlineStr">
+      <c r="C6" s="53" t="inlineStr">
         <is>
           <t>01/10/25</t>
         </is>
       </c>
-      <c r="D6" s="61" t="inlineStr">
+      <c r="D6" s="53" t="inlineStr">
         <is>
           <t>20/11/25</t>
         </is>
       </c>
-      <c r="E6" s="61" t="inlineStr">
+      <c r="E6" s="53" t="inlineStr">
         <is>
           <t>21/10/25</t>
         </is>
       </c>
-      <c r="F6" s="61" t="inlineStr">
+      <c r="F6" s="53" t="inlineStr">
         <is>
           <t>16/12/25</t>
         </is>
       </c>
-      <c r="G6" s="62" t="n">
+      <c r="G6" s="55" t="n">
         <v>26</v>
       </c>
-      <c r="H6" s="62" t="inlineStr">
+      <c r="H6" s="55" t="inlineStr">
         <is>
           <t>+26j</t>
         </is>
       </c>
-      <c r="I6" s="26" t="inlineStr">
-        <is>
-          <t>Début décalé + pause examens (22 nov — 1er déc). Période d'examens semestriels et projets parallèles obligatoires</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" s="63" t="n">
+      <c r="I6" s="56" t="inlineStr">
+        <is>
+          <t>Début décalé de 3 sem. + pause examens (22/11–01/12). Examens semestriels et projets parallèles obligatoires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="inlineStr">
+      <c r="B7" s="58" t="inlineStr">
         <is>
           <t>Phase 3: Développement Frontend</t>
         </is>
       </c>
-      <c r="C7" s="63" t="inlineStr">
+      <c r="C7" s="57" t="inlineStr">
         <is>
           <t>01/11/25</t>
         </is>
       </c>
-      <c r="D7" s="63" t="inlineStr">
+      <c r="D7" s="57" t="inlineStr">
         <is>
           <t>15/12/25</t>
         </is>
       </c>
-      <c r="E7" s="63" t="inlineStr">
+      <c r="E7" s="57" t="inlineStr">
         <is>
           <t>02/12/25</t>
         </is>
       </c>
-      <c r="F7" s="63" t="inlineStr">
+      <c r="F7" s="57" t="inlineStr">
         <is>
           <t>03/01/26</t>
         </is>
       </c>
-      <c r="G7" s="64" t="n">
+      <c r="G7" s="59" t="n">
         <v>19</v>
       </c>
-      <c r="H7" s="64" t="inlineStr">
+      <c r="H7" s="59" t="inlineStr">
         <is>
           <t>+19j</t>
         </is>
       </c>
-      <c r="I7" s="31" t="inlineStr">
-        <is>
-          <t>Début décalé (backend pas terminé) + pause fêtes de Noël (21-28 déc). Travail en parallèle avec la fin du backend</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="45" customHeight="1">
-      <c r="A8" s="65" t="n">
+      <c r="I7" s="60" t="inlineStr">
+        <is>
+          <t>Début décalé (backend pas terminé) + pause Noël (21–28/12). Travail en parallèle avec fin du backend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="36" t="inlineStr">
+      <c r="B8" s="62" t="inlineStr">
         <is>
           <t>Phase 4: Intégration MikroTik</t>
         </is>
       </c>
-      <c r="C8" s="65" t="inlineStr">
+      <c r="C8" s="61" t="inlineStr">
         <is>
           <t>01/12/25</t>
         </is>
       </c>
-      <c r="D8" s="65" t="inlineStr">
+      <c r="D8" s="61" t="inlineStr">
         <is>
           <t>31/12/25</t>
         </is>
       </c>
-      <c r="E8" s="65" t="inlineStr">
+      <c r="E8" s="61" t="inlineStr">
         <is>
           <t>02/01/26</t>
         </is>
       </c>
-      <c r="F8" s="65" t="inlineStr">
+      <c r="F8" s="61" t="inlineStr">
         <is>
           <t>12/01/26</t>
         </is>
       </c>
-      <c r="G8" s="66" t="n">
+      <c r="G8" s="63" t="n">
         <v>12</v>
       </c>
-      <c r="H8" s="66" t="inlineStr">
+      <c r="H8" s="63" t="inlineStr">
         <is>
           <t>+12j</t>
         </is>
       </c>
-      <c r="I8" s="36" t="inlineStr">
-        <is>
-          <t>Phase compressée grâce à l'expérience acquise. L'agent Node.js a pu être développé rapidement</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="67" t="n">
+      <c r="I8" s="64" t="inlineStr">
+        <is>
+          <t>Phase compressée (11j au lieu de 31j) grâce à l'expérience acquise et l'assistance IA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="41" t="inlineStr">
+      <c r="B9" s="66" t="inlineStr">
         <is>
           <t>Phase 5: Tests et Validation</t>
         </is>
       </c>
-      <c r="C9" s="67" t="inlineStr">
+      <c r="C9" s="65" t="inlineStr">
         <is>
           <t>02/01/26</t>
         </is>
       </c>
-      <c r="D9" s="67" t="inlineStr">
+      <c r="D9" s="65" t="inlineStr">
         <is>
           <t>13/01/26</t>
         </is>
       </c>
-      <c r="E9" s="67" t="inlineStr">
+      <c r="E9" s="65" t="inlineStr">
         <is>
           <t>13/01/26</t>
         </is>
       </c>
-      <c r="F9" s="67" t="inlineStr">
+      <c r="F9" s="65" t="inlineStr">
         <is>
           <t>16/01/26</t>
         </is>
       </c>
-      <c r="G9" s="68" t="n">
+      <c r="G9" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="68" t="inlineStr">
+      <c r="H9" s="67" t="inlineStr">
         <is>
           <t>+3j</t>
         </is>
       </c>
-      <c r="I9" s="41" t="inlineStr">
-        <is>
-          <t>Phase réduite (3 jours au lieu de 10). Tests accélérés car tests unitaires écrits pendant le développement</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="45" customHeight="1">
+      <c r="I9" s="68" t="inlineStr">
+        <is>
+          <t>Phase réduite (4j au lieu de 10). Tests écrits en parallèle du développement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
       <c r="A10" s="69" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="inlineStr">
+      <c r="B10" s="70" t="inlineStr">
         <is>
           <t>Phase 6: Documentation &amp; Soutenance</t>
         </is>
@@ -2575,107 +3163,107 @@
           <t>20/01/26</t>
         </is>
       </c>
-      <c r="G10" s="70" t="n">
+      <c r="G10" s="71" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="70" t="inlineStr">
+      <c r="H10" s="71" t="inlineStr">
         <is>
           <t>+4j</t>
         </is>
       </c>
-      <c r="I10" s="45" t="inlineStr">
-        <is>
-          <t>Décalage de 4 jours. Soutenance déplacée au 20 janvier au lieu du 16</t>
+      <c r="I10" s="72" t="inlineStr">
+        <is>
+          <t>Décalage de 4 jours. Soutenance reportée au 20 janvier.</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
-        <is>
-          <t>SYNTHÈSE DES ÉCARTS</t>
+      <c r="A12" s="46" t="inlineStr">
+        <is>
+          <t>SYNTHÈSE</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="71" t="inlineStr">
-        <is>
-          <t>📅 Durée prévue : 1er sept 2025 → 16 jan 2026 = 137 jours (19,5 semaines)</t>
+      <c r="A13" s="73" t="inlineStr">
+        <is>
+          <t>📅 Durée prévue : 1er sept → 16 jan = 137 jours</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="72" t="inlineStr">
-        <is>
-          <t>📅 Durée réelle : 1er sept 2025 → 20 jan 2026 = 141 jours (20 semaines)</t>
+      <c r="A14" s="74" t="inlineStr">
+        <is>
+          <t>📅 Durée réelle : 1er sept → 20 jan = 141 jours (+4 jours)</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="73" t="inlineStr">
-        <is>
-          <t>⏸️ Temps de pause total : ~5 semaines (35 jours) répartis en 3 interruptions</t>
+      <c r="A15" s="75" t="inlineStr">
+        <is>
+          <t>⏸️ Pauses totales : ~35 jours en 3 interruptions</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="74" t="inlineStr">
-        <is>
-          <t>✅ Temps de travail effectif : ~15 semaines (106 jours) — Projet livré dans les délais malgré les interruptions</t>
+      <c r="A16" s="76" t="inlineStr">
+        <is>
+          <t>✅ Travail effectif : ~106 jours — Projet livré malgré les contraintes</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
-        <is>
-          <t>CAUSES DES ÉCARTS</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="75" t="inlineStr">
-        <is>
-          <t>1. Projets académiques parallèles (sept-oct)</t>
-        </is>
-      </c>
-      <c r="D19" s="76" t="inlineStr">
-        <is>
-          <t>Travail obligatoire sur d'autres projets non liés au portail captif, imposés par le cursus UCAC-ICAM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="75" t="inlineStr">
-        <is>
-          <t>2. Période d'examens (nov-déc)</t>
-        </is>
-      </c>
-      <c r="D20" s="76" t="inlineStr">
-        <is>
-          <t>Examens semestriels et projets évalués en parallèle, nécessitant une pause dans le développement.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="75" t="inlineStr">
-        <is>
-          <t>3. Congés de fin d'année (déc)</t>
-        </is>
-      </c>
-      <c r="D21" s="76" t="inlineStr">
-        <is>
-          <t>Pause pour les fêtes de Noël, période non travaillée.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="75" t="inlineStr">
-        <is>
-          <t>4. Compression des phases finales</t>
-        </is>
-      </c>
-      <c r="D22" s="76" t="inlineStr">
-        <is>
-          <t>Les phases 4, 5 et 6 ont été compressées pour rattraper le retard. Le travail en parallèle (backend + frontend) et l'assistance IA (Claude) ont permis d'accélérer le développement.</t>
+      <c r="A18" s="46" t="inlineStr">
+        <is>
+          <t>CAUSES PRINCIPALES DES ÉCARTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="35" customHeight="1">
+      <c r="A19" s="77" t="inlineStr">
+        <is>
+          <t>1. Projets académiques (sept–oct)</t>
+        </is>
+      </c>
+      <c r="D19" s="78" t="inlineStr">
+        <is>
+          <t>Travail obligatoire sur d'autres projets imposés par le cursus, non liés au portail captif.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="35" customHeight="1">
+      <c r="A20" s="77" t="inlineStr">
+        <is>
+          <t>2. Examens semestriels (nov–déc)</t>
+        </is>
+      </c>
+      <c r="D20" s="78" t="inlineStr">
+        <is>
+          <t>Période d'examens et projets évalués nécessitant une pause dans le développement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1">
+      <c r="A21" s="77" t="inlineStr">
+        <is>
+          <t>3. Congés de Noël (déc)</t>
+        </is>
+      </c>
+      <c r="D21" s="78" t="inlineStr">
+        <is>
+          <t>Pause pour les fêtes de fin d'année, période non travaillée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1">
+      <c r="A22" s="77" t="inlineStr">
+        <is>
+          <t>4. Stratégie de rattrapage</t>
+        </is>
+      </c>
+      <c r="D22" s="78" t="inlineStr">
+        <is>
+          <t>Phases 4-5-6 compressées. Travail en parallèle (backend+frontend) et assistance IA (Claude) ont permis de livrer à temps malgré ~5 semaines de pause.</t>
         </is>
       </c>
     </row>
